--- a/teaching/traditional_assets/database/data/russia/russia_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_insurance_prop_cas.xlsx
@@ -590,41 +590,44 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.255</v>
+      </c>
       <c r="G2">
-        <v>0.1465315666406859</v>
+        <v>-0.03851294903926483</v>
       </c>
       <c r="H2">
-        <v>0.1465315666406859</v>
+        <v>-0.03851294903926483</v>
       </c>
       <c r="I2">
-        <v>0.1184723304754482</v>
+        <v>-0.04285714285714286</v>
       </c>
       <c r="J2">
-        <v>0.09076803165657413</v>
+        <v>-0.03432944606413994</v>
       </c>
       <c r="K2">
-        <v>9.84</v>
+        <v>3.69</v>
       </c>
       <c r="L2">
-        <v>0.07669524551831644</v>
+        <v>0.03082706766917293</v>
       </c>
       <c r="M2">
-        <v>0.678</v>
+        <v>2.24</v>
       </c>
       <c r="N2">
-        <v>0.01798408488063661</v>
+        <v>0.05233644859813085</v>
       </c>
       <c r="O2">
-        <v>0.06890243902439025</v>
+        <v>0.6070460704607047</v>
       </c>
       <c r="P2">
-        <v>0.678</v>
+        <v>2.24</v>
       </c>
       <c r="Q2">
-        <v>0.01798408488063661</v>
+        <v>0.05233644859813085</v>
       </c>
       <c r="R2">
-        <v>0.06890243902439025</v>
+        <v>0.6070460704607047</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,70 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>10.8</v>
+        <v>5.47</v>
       </c>
       <c r="V2">
-        <v>0.2864721485411141</v>
+        <v>0.127803738317757</v>
       </c>
       <c r="W2">
-        <v>0.3699248120300752</v>
+        <v>0.1476</v>
       </c>
       <c r="X2">
-        <v>0.05942771680886963</v>
+        <v>0.05453359612225836</v>
       </c>
       <c r="Y2">
-        <v>0.3104970952212055</v>
+        <v>0.09306640387774165</v>
       </c>
       <c r="Z2">
-        <v>10.58580858085809</v>
+        <v>5.329474621549421</v>
       </c>
       <c r="AA2">
-        <v>0.9608530083777608</v>
+        <v>-0.1829579115706835</v>
       </c>
       <c r="AB2">
-        <v>0.05803395383704241</v>
+        <v>0.05429009138894589</v>
       </c>
       <c r="AC2">
-        <v>0.9028190545407184</v>
+        <v>-0.2372480029596294</v>
       </c>
       <c r="AD2">
-        <v>4.07</v>
+        <v>0.446</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.07</v>
+        <v>0.446</v>
       </c>
       <c r="AG2">
-        <v>-6.73</v>
+        <v>-5.024</v>
       </c>
       <c r="AH2">
-        <v>0.09743835288484558</v>
+        <v>0.01031309254035055</v>
       </c>
       <c r="AI2">
-        <v>0.1309945284840682</v>
+        <v>0.01590244598160165</v>
       </c>
       <c r="AJ2">
-        <v>-0.21730707135938</v>
+        <v>-0.1329944938585345</v>
       </c>
       <c r="AK2">
-        <v>-0.3320177602368032</v>
+        <v>-0.222537207654146</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="AM2">
-        <v>-0.004</v>
+        <v>0.126</v>
       </c>
       <c r="AN2">
-        <v>0.2625806451612903</v>
+        <v>-0.09674620390455531</v>
+      </c>
+      <c r="AO2">
+        <v>-40.71428571428572</v>
       </c>
       <c r="AP2">
-        <v>-0.4341935483870968</v>
+        <v>1.089804772234273</v>
       </c>
       <c r="AQ2">
-        <v>-3800</v>
+        <v>-40.71428571428572</v>
       </c>
     </row>
     <row r="3">
@@ -715,41 +721,44 @@
           <t>Insurance (Prop/Cas.)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.255</v>
+      </c>
       <c r="G3">
-        <v>0.1465315666406859</v>
+        <v>-0.03851294903926483</v>
       </c>
       <c r="H3">
-        <v>0.1465315666406859</v>
+        <v>-0.03851294903926483</v>
       </c>
       <c r="I3">
-        <v>0.1184723304754482</v>
+        <v>-0.04285714285714286</v>
       </c>
       <c r="J3">
-        <v>0.09076803165657413</v>
+        <v>-0.03432944606413994</v>
       </c>
       <c r="K3">
-        <v>9.84</v>
+        <v>3.69</v>
       </c>
       <c r="L3">
-        <v>0.07669524551831644</v>
+        <v>0.03082706766917293</v>
       </c>
       <c r="M3">
-        <v>0.678</v>
+        <v>2.24</v>
       </c>
       <c r="N3">
-        <v>0.01798408488063661</v>
+        <v>0.05233644859813085</v>
       </c>
       <c r="O3">
-        <v>0.06890243902439025</v>
+        <v>0.6070460704607047</v>
       </c>
       <c r="P3">
-        <v>0.678</v>
+        <v>2.24</v>
       </c>
       <c r="Q3">
-        <v>0.01798408488063661</v>
+        <v>0.05233644859813085</v>
       </c>
       <c r="R3">
-        <v>0.06890243902439025</v>
+        <v>0.6070460704607047</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -758,70 +767,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>10.8</v>
+        <v>5.47</v>
       </c>
       <c r="V3">
-        <v>0.2864721485411141</v>
+        <v>0.127803738317757</v>
       </c>
       <c r="W3">
-        <v>0.3699248120300752</v>
+        <v>0.1476</v>
       </c>
       <c r="X3">
-        <v>0.05942771680886963</v>
+        <v>0.05453359612225836</v>
       </c>
       <c r="Y3">
-        <v>0.3104970952212055</v>
+        <v>0.09306640387774165</v>
       </c>
       <c r="Z3">
-        <v>10.58580858085809</v>
+        <v>5.329474621549421</v>
       </c>
       <c r="AA3">
-        <v>0.9608530083777608</v>
+        <v>-0.1829579115706835</v>
       </c>
       <c r="AB3">
-        <v>0.05803395383704241</v>
+        <v>0.05429009138894589</v>
       </c>
       <c r="AC3">
-        <v>0.9028190545407184</v>
+        <v>-0.2372480029596294</v>
       </c>
       <c r="AD3">
-        <v>4.07</v>
+        <v>0.446</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.07</v>
+        <v>0.446</v>
       </c>
       <c r="AG3">
-        <v>-6.73</v>
+        <v>-5.024</v>
       </c>
       <c r="AH3">
-        <v>0.09743835288484558</v>
+        <v>0.01031309254035055</v>
       </c>
       <c r="AI3">
-        <v>0.1309945284840682</v>
+        <v>0.01590244598160165</v>
       </c>
       <c r="AJ3">
-        <v>-0.21730707135938</v>
+        <v>-0.1329944938585345</v>
       </c>
       <c r="AK3">
-        <v>-0.3320177602368032</v>
+        <v>-0.222537207654146</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="AM3">
-        <v>-0.004</v>
+        <v>0.126</v>
       </c>
       <c r="AN3">
-        <v>0.2625806451612903</v>
+        <v>-0.09674620390455531</v>
+      </c>
+      <c r="AO3">
+        <v>-40.71428571428572</v>
       </c>
       <c r="AP3">
-        <v>-0.4341935483870968</v>
+        <v>1.089804772234273</v>
       </c>
       <c r="AQ3">
-        <v>-3800</v>
+        <v>-40.71428571428572</v>
       </c>
     </row>
   </sheetData>
